--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajsteinhauser/portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{500C55FB-3928-5042-A311-2D05A60D8D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD71EF1-A5BD-4E4C-994C-52CF07FAA720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2947451D-428F-FB4D-9A64-52087C983BE4}"/>
+    <workbookView xWindow="28800" yWindow="-5500" windowWidth="19200" windowHeight="23500" xr2:uid="{2947451D-428F-FB4D-9A64-52087C983BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Classic City Books</t>
   </si>
   <si>
-    <t>https://github.com/AJSteinhauser/cs1302-arcade/settings</t>
-  </si>
-  <si>
     <t>https://ajsteinhauser.github.io/HCI_Project.github.io/</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>The result of a semester long group project that followed the Scrum Software development cycle. There were several sprint cycles and documentation was generated throughout to build an online bookstore.</t>
+  </si>
+  <si>
+    <t>https://github.com/AJSteinhauser/cs1302-arcade</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
@@ -550,29 +550,29 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -581,9 +581,8 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D3C95584-156A-0B48-836B-8F2C477FB6A2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B5817A45-9E27-E94D-88B4-F753DB3CC600}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{846A6511-6570-0848-A50C-D46435B93C86}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{C91F740B-6026-8B42-92A7-D37815AFFAB0}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{15607006-C155-F241-9BBA-B1AC6D5BA726}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9487E531-2C68-A041-8160-474FD41260CD}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{15607006-C155-F241-9BBA-B1AC6D5BA726}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{9487E531-2C68-A041-8160-474FD41260CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
